--- a/Coordinates.xlsx
+++ b/Coordinates.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marymcphee/Documents/MATLAB/SYDE 411/optimization_project_411/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C2ABFF-6F68-E444-AAB3-09005C5A3C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Existing Gardens" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Grocery Stores" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Parks + Schools (Possible Locat" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Community Gathering Places" sheetId="4" r:id="rId7"/>
+    <sheet name="Existing Gardens" sheetId="1" r:id="rId1"/>
+    <sheet name="Grocery Stores" sheetId="2" r:id="rId2"/>
+    <sheet name="Possible Locations" sheetId="3" r:id="rId3"/>
+    <sheet name="Community Gathering Places" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="396">
   <si>
     <t>Name</t>
   </si>
@@ -139,36 +148,1107 @@
     <t>Park or School</t>
   </si>
   <si>
+    <t>KITCHENER MEMORIAL AUDITORIUM DOG PARK</t>
+  </si>
+  <si>
+    <t>DOG PARK</t>
+  </si>
+  <si>
+    <t>EMMANUEL BIBLE COLLEGE</t>
+  </si>
+  <si>
+    <t>EDUCATION FACILITY</t>
+  </si>
+  <si>
+    <t>ROCKWAY MENNONITE COLLEGIATE</t>
+  </si>
+  <si>
+    <t>SUNNYSIDE PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>EASTWOOD COLLEGIATE INSTITUTE</t>
+  </si>
+  <si>
+    <t>STANFORD ACADEMY</t>
+  </si>
+  <si>
+    <t>FRANKLIN PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>CAMERON HEIGHTS COLLEGIATE INSTITUTE</t>
+  </si>
+  <si>
+    <t>CHICOPEE HILLS PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>SHEPPARD PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>ST. DANIEL CATHOLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>ST. JOHN PAUL II CATHOLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>ST. ANNE CATHOLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>LACKNER WOODS PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>SUDDABY PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>STANLEY PARK PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>CRESTVIEW PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>SMITHSON PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>GRAND RIVER COLLEGIATE INSTITUTE</t>
+  </si>
+  <si>
+    <t>CANADIAN MARTYRS CATHOLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>ROSEMOUNT PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>MACKENZIE KING PUBLIC SCHOOL</t>
+  </si>
+  <si>
+    <t>WILSON PARK NATURAL AREA</t>
+  </si>
+  <si>
+    <t>PARK</t>
+  </si>
+  <si>
+    <t>MORRISON PARK</t>
+  </si>
+  <si>
+    <t>CHICOPEE-VALE TRAIL</t>
+  </si>
+  <si>
+    <t>HYDRO CORRIDOR TRAIL</t>
+  </si>
+  <si>
+    <t>WILSON PARK</t>
+  </si>
+  <si>
+    <t>DIXON GREEN</t>
+  </si>
+  <si>
+    <t>OATEN PARK</t>
+  </si>
+  <si>
+    <t>CHICOPEE PARK (GRCA)</t>
+  </si>
+  <si>
+    <t>MILL ST PARKETTE</t>
+  </si>
+  <si>
+    <t>VERONICA DRIVE - SWP</t>
+  </si>
+  <si>
+    <t>KINZIE PARK</t>
+  </si>
+  <si>
+    <t>ROCKWAY GARDENS</t>
+  </si>
+  <si>
+    <t>SCHNEIDER CREEK - NYBERG GREENWAY 3</t>
+  </si>
+  <si>
+    <t>IDLEWOOD PARK</t>
+  </si>
+  <si>
+    <t>PROSPECT PARK</t>
+  </si>
+  <si>
+    <t>SIMS ESTATE - SWP</t>
+  </si>
+  <si>
+    <t>BEAUMONT PARK</t>
+  </si>
+  <si>
+    <t>SCHNEIDER CREEK - NYBERG GREENWAY 2</t>
+  </si>
+  <si>
+    <t>BANCROFT STREET - SWP</t>
+  </si>
+  <si>
+    <t>IDLEWOOD PARK - SWP</t>
+  </si>
+  <si>
+    <t>SHOEMAKER CREEK GREENWAY</t>
+  </si>
+  <si>
+    <t>IDLEWOOD PARK NATURAL AREA</t>
+  </si>
+  <si>
+    <t>EDMUND GREEN</t>
+  </si>
+  <si>
+    <t>SCHNEIDER CREEK - NYBERG GREENWAY 1</t>
+  </si>
+  <si>
+    <t>GRAND RIVER NATURAL AREA - SIMS ESTATE</t>
+  </si>
+  <si>
+    <t>TREMAINE PARK</t>
+  </si>
+  <si>
+    <t>MONTGOMERY PARK</t>
+  </si>
+  <si>
+    <t>STIRLING GREEN</t>
+  </si>
+  <si>
+    <t>BRIARFIELD PARK NATURAL AREA</t>
+  </si>
+  <si>
+    <t>WILLOW GREEN</t>
+  </si>
+  <si>
+    <t>SCHNEIDER CREEK - STIRLING GREENWAY</t>
+  </si>
+  <si>
+    <t>IRON HORSE TRAIL</t>
+  </si>
+  <si>
+    <t>FAIRWAY CRES - SWP</t>
+  </si>
+  <si>
+    <t>IDLE CREEK DR - SWP#A</t>
+  </si>
+  <si>
+    <t>KAUFMAN PARK</t>
+  </si>
+  <si>
+    <t>IDLEWOOD CREEK - SWP#B</t>
+  </si>
+  <si>
+    <t>JANINE ST PARK</t>
+  </si>
+  <si>
+    <t>IDLEWOOD CREEK - SWP#C</t>
+  </si>
+  <si>
+    <t>IDLEWOOD CREEK NATURAL AREA</t>
+  </si>
+  <si>
+    <t>SHUPE GREEN</t>
+  </si>
+  <si>
+    <t>FRANKLIN PARK</t>
+  </si>
+  <si>
+    <t>SPRINGMOUNT PARK NATURAL AREA - SWP#C</t>
+  </si>
+  <si>
+    <t>SPRINGMOUNT PARK NATURAL AREA</t>
+  </si>
+  <si>
+    <t>RANDERSON GREEN</t>
+  </si>
+  <si>
+    <t>SPRINGMOUNT PARK NATURAL AREA - SWP#B</t>
+  </si>
+  <si>
+    <t>LANDGREN TRAIL LINK</t>
+  </si>
+  <si>
+    <t>LUTHER GREEN</t>
+  </si>
+  <si>
+    <t>DAIMLER DR WALKWAY</t>
+  </si>
+  <si>
+    <t>WOOLNER WOODS</t>
+  </si>
+  <si>
+    <t>SPRINGMOUNT PARK NATURAL AREA - SWP#A</t>
+  </si>
+  <si>
+    <t>MIDLAND PARK</t>
+  </si>
+  <si>
+    <t>SPRINGMOUNT PARK</t>
+  </si>
+  <si>
+    <t>KNOLLWOOD PARK</t>
+  </si>
+  <si>
+    <t>MIDLAND PARK (WCDSB)</t>
+  </si>
+  <si>
+    <t>KITCHENER MEMORIAL AUDITORIUM COMPLEX SPORTSFIELD</t>
+  </si>
+  <si>
+    <t>SPRINGMOUNT PARK - SWP</t>
+  </si>
+  <si>
+    <t>WALLENBERG PARK</t>
+  </si>
+  <si>
+    <t>COLTON - SWP</t>
+  </si>
+  <si>
+    <t>COUNTRY CLAIR PARK</t>
+  </si>
+  <si>
+    <t>MADISON GREEN</t>
+  </si>
+  <si>
+    <t>LACKNER WOODS NATURAL AREA</t>
+  </si>
+  <si>
+    <t>STABLER GREEN</t>
+  </si>
+  <si>
+    <t>LACKNER WOODS - SWP</t>
+  </si>
+  <si>
+    <t>IDLEWOOD GREENWAY</t>
+  </si>
+  <si>
+    <t>LACKNER WOODS (PRIVATE)</t>
+  </si>
+  <si>
+    <t>EBY PARK</t>
+  </si>
+  <si>
+    <t>BRUBACHER PARK</t>
+  </si>
+  <si>
+    <t>ZELLER PARK</t>
+  </si>
+  <si>
+    <t>CROSBY PARK</t>
+  </si>
+  <si>
+    <t>STANLEY PARK CONSERVATION AREA (GRCA)</t>
+  </si>
+  <si>
+    <t>EXPRESSWAY TRAIL</t>
+  </si>
+  <si>
+    <t>CASEY PARK</t>
+  </si>
+  <si>
+    <t>GRAND RIVER NA - RIVER RIDGE - SWP</t>
+  </si>
+  <si>
+    <t>TECUMSEH PARK</t>
+  </si>
+  <si>
+    <t>GORDON GREEN</t>
+  </si>
+  <si>
+    <t>GRAND RIVER NATURAL AREA - RIVER RIDGE</t>
+  </si>
+  <si>
+    <t>ROSENBERG PARK</t>
+  </si>
+  <si>
+    <t>SHANTZ PARK</t>
+  </si>
+  <si>
+    <t>WEBER PARK</t>
+  </si>
+  <si>
+    <t>GRAND RIVER NATURAL AREA - OTTERBEIN</t>
+  </si>
+  <si>
+    <t>NATCHEZ WOODS</t>
+  </si>
+  <si>
+    <t>MAPLE LANE GREEN</t>
+  </si>
+  <si>
+    <t>DENLOW TRAIL</t>
+  </si>
+  <si>
+    <t>GLENCLIFFE CRT - SWP</t>
+  </si>
+  <si>
+    <t>WESTCHESTER PARK</t>
+  </si>
+  <si>
+    <t>ROSEMOUNT PARK</t>
+  </si>
+  <si>
+    <t>WOODSIDE NATIONAL HISTORIC PARK (FEDERAL)</t>
+  </si>
+  <si>
+    <t>HERITAGE PARK</t>
+  </si>
+  <si>
+    <t>WESTCHESTER PARK - SWP</t>
+  </si>
+  <si>
+    <t>KOLB VALLEY - SWP#A</t>
+  </si>
+  <si>
+    <t>KOLB VALLEY NATURAL AREA</t>
+  </si>
+  <si>
+    <t>FORFAR PARK</t>
+  </si>
+  <si>
+    <t>BLUE SPRINGS WOODS NATURAL AREA</t>
+  </si>
+  <si>
+    <t>KOLB VALLEY - SWP#B</t>
+  </si>
+  <si>
+    <t>SPRINGWOOD PARK</t>
+  </si>
+  <si>
+    <t>GEORGIAN PARK NATURAL AREA</t>
+  </si>
+  <si>
     <t>Grand River Stanley Park Community Library</t>
+  </si>
+  <si>
+    <t>ROCKWAY CENTRE</t>
+  </si>
+  <si>
+    <t>STANLEY PARK COMMUNITY CENTRE</t>
+  </si>
+  <si>
+    <t>BIG BROTHERS ASSOCIATION</t>
+  </si>
+  <si>
+    <t>YMCA OF KITCHENER-WATERLOO</t>
+  </si>
+  <si>
+    <t>RAY OF HOPE COMMUNITY CENTRE</t>
+  </si>
+  <si>
+    <t>SALVATION ARMY FAMILY SERVICES</t>
+  </si>
+  <si>
+    <t>JOHN HOWARD SOCIETY</t>
+  </si>
+  <si>
+    <t>ANISHNABEG OUTREACH EMPLOYMENT AND TRAINING</t>
+  </si>
+  <si>
+    <t>NIAGARA PENINSULA ABORIGINAL AREA MANAGEMENT</t>
+  </si>
+  <si>
+    <t>HEALING OF SEVEN GENERATIONS</t>
+  </si>
+  <si>
+    <t>K-W URBAN NATIVE WIGWAM PROJECT</t>
+  </si>
+  <si>
+    <t>AHWENEHAODE INDIGENOUS JUSTICE PROGRAM</t>
+  </si>
+  <si>
+    <t>TREMAINE PARK LITTLE LIBRARY</t>
+  </si>
+  <si>
+    <t>EBY PARK LITTLE LIBRARY</t>
+  </si>
+  <si>
+    <t>WEBER PARK LITTLE LIBRARY</t>
+  </si>
+  <si>
+    <t>MUSKOKA COURT LITTLE LIBRARY</t>
+  </si>
+  <si>
+    <t>PHOMMAVIHARAM LAO BUDDHIST TEMPLE</t>
+  </si>
+  <si>
+    <t>IMMANUEL PENTACOSTAL CHURCH</t>
+  </si>
+  <si>
+    <t>UNITY CENTRE OF PRACTICAL CHRISTIANITY</t>
+  </si>
+  <si>
+    <t>ISIJ OF KITCHENER</t>
+  </si>
+  <si>
+    <t>ST MARY'S COPTIC ORTHODOX CHURCH</t>
+  </si>
+  <si>
+    <t>CHRIST THE KING UNITED CHURCH OF CANADA</t>
+  </si>
+  <si>
+    <t>CENTRAL BAPTIST CHURCH</t>
+  </si>
+  <si>
+    <t>FIRST UNITARIAN CONGREGATION OF WATERLOO</t>
+  </si>
+  <si>
+    <t>FIRST UNITARIAN CONGREGATION</t>
+  </si>
+  <si>
+    <t>THE EVANGELICAL MISSIONARY CHURCH - CANADA EAST DISTRICT</t>
+  </si>
+  <si>
+    <t>FIRST HMONG MENNONITE CHURCH</t>
+  </si>
+  <si>
+    <t>SPANISH CHURCH OF GOD</t>
+  </si>
+  <si>
+    <t>EASTWOOD CHRISTIAN FELLOWSHIP</t>
+  </si>
+  <si>
+    <t>BETHEL EVANGELICAL-LUTHERAN CHURCH</t>
+  </si>
+  <si>
+    <t>BETH JACOB SYNAGOGUE</t>
+  </si>
+  <si>
+    <t>NEW SONG CHURCH &amp; WORLD OUTREACH</t>
+  </si>
+  <si>
+    <t>KITCHENER MENNONITE BRETHERN CHURCH</t>
+  </si>
+  <si>
+    <t>ST LUKE'S LUTHERAN CHURCH</t>
+  </si>
+  <si>
+    <t>GRANDVIEW BAPTIST CHURCH</t>
+  </si>
+  <si>
+    <t>OLIVET UNITED CHURCH</t>
+  </si>
+  <si>
+    <t>KITCHENER CHURCH OF GOD (NEW TESTAMENT)</t>
+  </si>
+  <si>
+    <t>FIRST MENNONITE CHURCH</t>
+  </si>
+  <si>
+    <t>WATERLOO REGIONAL DREAM CENTRE</t>
+  </si>
+  <si>
+    <t>THE VICTORIOUS CHURCH</t>
+  </si>
+  <si>
+    <t>EL SHADDAI OUTREACH MINISTRIES</t>
+  </si>
+  <si>
+    <t>TRINITY GOSPEL CHURCH</t>
+  </si>
+  <si>
+    <t>STIRLING AVENUE MENNONITE CHURCH</t>
+  </si>
+  <si>
+    <t>OUR LADY OF FATIMA</t>
+  </si>
+  <si>
+    <t>KITCHENER GOSPEL TEMPLE</t>
+  </si>
+  <si>
+    <t>KW OPEN BIBLE PENTECOSTAL CHURCH OF GOD</t>
+  </si>
+  <si>
+    <t>BUDDHIST PRAJNA TEMPLE</t>
+  </si>
+  <si>
+    <t>STANLEY PARK UNITED BRETHREN CHURCH</t>
+  </si>
+  <si>
+    <t>PILGRIM LUTHERAN CHURCH</t>
+  </si>
+  <si>
+    <t>ST ANTHONY DANIEL CHURCH</t>
+  </si>
+  <si>
+    <t>HOLY CROSS LUTHERAN CHURCH</t>
+  </si>
+  <si>
+    <t>K-W KOREAN PRESBYTERIAN CHURCH</t>
+  </si>
+  <si>
+    <t>CHURCH OF JESUS CHRIST OF LATTER DAY SAINTS</t>
+  </si>
+  <si>
+    <t>ST ANNE'S ROMAN CATHOLIC CHURCH</t>
+  </si>
+  <si>
+    <t>KITCHENER EAST PRESBYTERIAN CHURCH</t>
+  </si>
+  <si>
+    <t>BETHANY EVANGELICAL MISSIONARY CHURCH</t>
+  </si>
+  <si>
+    <t>HOPE LUTHERAN CHURCH</t>
+  </si>
+  <si>
+    <t>REFORMATION LUTHERAN CHURCH</t>
+  </si>
+  <si>
+    <t>RELIGIOUS SOCIETY OF FRIENDS</t>
+  </si>
+  <si>
+    <t>ST JAMES-ROSEMOUNT UNITED CHURCH</t>
+  </si>
+  <si>
+    <t>STANLEY PARK BAPTIST CHURCH</t>
+  </si>
+  <si>
+    <t>APOSTOLIC CHRISTIAN CHURCH (NAZARENE)</t>
+  </si>
+  <si>
+    <t>KITCHENER MASJID</t>
+  </si>
+  <si>
+    <t>SUNSHINE MONTESSORI SCHOOL PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>SUNSHINE MONTESSORI SCHOOL PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>HOWARD ROBERTSON PUBLIC SCHOOL PLAYGROUND</t>
+  </si>
+  <si>
+    <t>MORRISON PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>OATEN PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>MILL ST PARKETTE PLAYGROUND</t>
+  </si>
+  <si>
+    <t>KINZIE PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>KINZIE PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>IDLEWOOD PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>PROSPECT PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>PROSPECT PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>BEAUMONT PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>MONTGOMERY PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>EDMUND GREEN PLAYGROUND</t>
+  </si>
+  <si>
+    <t>TREMAINE PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>KAUFMAN PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>FRANKLIN PUBLIC SCHOOL PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>FRANKLIN PUBLIC SCHOOL PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>FRANKLIN PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>FRANKLIN PUBLIC SCHOOL PLAYGROUND 3</t>
+  </si>
+  <si>
+    <t>KNOLLWOOD PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>SPRINGMOUNT PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>SPRINGMOUNT PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>MIDLAND PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>ST DANIEL CATHOLIC SCHOOL PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>ST DANIEL CATHOLIC SCHOOL PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>BLESSED JOHN PAUL II CATHOLIC SCHOOL PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>BLESSED JOHN PAUL II CATHOLIC SCHOOL PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>COUNTRY CLAIR PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>COUNTRY CLAIR PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>EBY PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>EBY PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>BRUBACHER PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>ST ANNE CATHOLIC SCHOOL PLAYGROUND</t>
+  </si>
+  <si>
+    <t>ZELLER PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>SUDDABY PUBLIC SCHOOL PLAYGROUND</t>
+  </si>
+  <si>
+    <t>EDEN OAK PARK AREA A PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>ZELLER PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>CROSBY PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>CRESTVIEW PUBLIC SCHOOL PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>SMITHSON PUBLIC SCHOOL PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>CASEY PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>CASEY PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>SMITHSON PUBLIC SCHOOL PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>TECUMSEH PARK PLAYGROUND 3</t>
+  </si>
+  <si>
+    <t>GORDON GREEN PLAYGROUND</t>
+  </si>
+  <si>
+    <t>TECUMSEH PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>TECUMSEH PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>ROSENBERG PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>SHANTZ PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>SHANTZ PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>WEBER PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>WEBER PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>MAJOR PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>CANADIAN MARTYRS CATHOLIC SCHOOL PLAYGROUND</t>
+  </si>
+  <si>
+    <t>WESTCHESTER PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>WESTCHESTER PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>FORFAR PARK PLAYGROUND</t>
+  </si>
+  <si>
+    <t>HERITAGE PARK PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>HERITAGE PARK PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>MACKENZIE KING SCHOOL PLAYGROUND 2</t>
+  </si>
+  <si>
+    <t>MACKENZIE KING PUBLIC SCHOOL PLAYGROUND 1</t>
+  </si>
+  <si>
+    <t>TRINITY VILLAGE TERRACE</t>
+  </si>
+  <si>
+    <t>BRIARFIELD GARDENS RETIREMENT RESIDENCE</t>
+  </si>
+  <si>
+    <t>MILLWOOD MANOR RETIREMENT RESIDENCE</t>
+  </si>
+  <si>
+    <t>EMMANUEL VILLAGE RETIREMENT GARDENS</t>
+  </si>
+  <si>
+    <t>FERGUS PLACE RETIREMENT RESIDENCE</t>
+  </si>
+  <si>
+    <t>SUNNYSIDE HOME</t>
+  </si>
+  <si>
+    <t>LAFONTAINE TERRACE</t>
+  </si>
+  <si>
+    <t>PEOPLECARE AR GOUDIE</t>
+  </si>
+  <si>
+    <t>DOM CARDILLO ARENA</t>
+  </si>
+  <si>
+    <t>KINSMEN/ KIWANIS TWIN PAD ICE RINK</t>
+  </si>
+  <si>
+    <t>GRAND RIVER ARENA</t>
+  </si>
+  <si>
+    <t>WILSON PARK BALL DIAMOND 3</t>
+  </si>
+  <si>
+    <t>MORRISON PARK BALL DIAMOND</t>
+  </si>
+  <si>
+    <t>HOWARD ROBERTSON SCHOOL BALL DIAMOND</t>
+  </si>
+  <si>
+    <t>WILSON PARK BALL DIAMOND 4</t>
+  </si>
+  <si>
+    <t>SUNNYSIDE PUBLIC SCHOOL BALL DIAMOND</t>
+  </si>
+  <si>
+    <t>IDLEWOOD PARK BALL DIAMOND</t>
+  </si>
+  <si>
+    <t>STANFORD ACADEMY BALL DIAMOND</t>
+  </si>
+  <si>
+    <t>FRANKLIN SCHOOL BALL DIAMOND 3</t>
+  </si>
+  <si>
+    <t>FRANKLIN SCHOOL BALL DIAMOND 2</t>
+  </si>
+  <si>
+    <t>FRANKLIN PARK BALL DIAMOND 1</t>
+  </si>
+  <si>
+    <t>FRANKLIN PARK BLAST BALL 3</t>
+  </si>
+  <si>
+    <t>FRANKLIN PARK BLAST BALL 1</t>
+  </si>
+  <si>
+    <t>FRANKLIN PARK BLAST BALL 2</t>
+  </si>
+  <si>
+    <t>JACK COUCH PARK (KMAC) BALL DIAMOND</t>
+  </si>
+  <si>
+    <t>KNOLLWOOD PARK BALL DIAMOND</t>
+  </si>
+  <si>
+    <t>MIDLAND PARK BALL DIAMOND</t>
+  </si>
+  <si>
+    <t>SHEPPARD PUBLIC SCHOOL BALL DIAMOND 1</t>
+  </si>
+  <si>
+    <t>MIDLAND PARK BLAST BALL</t>
+  </si>
+  <si>
+    <t>ST ANNE SEPERATE SCHOOL BALL DIAMOND</t>
+  </si>
+  <si>
+    <t>CROSBY PARK BALL DIAMOND 1</t>
+  </si>
+  <si>
+    <t>CROSBY PARK BALL DIAMOND 2</t>
+  </si>
+  <si>
+    <t>SMITHSON SCHOOL BALL DIAMOND 1</t>
+  </si>
+  <si>
+    <t>ROSENBERG PARK BALL DIAMOND 2</t>
+  </si>
+  <si>
+    <t>ROSENBERG PARK BALL DIAMOND 1</t>
+  </si>
+  <si>
+    <t>WEBER PARK BALL DIAMOND</t>
+  </si>
+  <si>
+    <t>CANADIAN MARTYRS SEPARATE SCHOOL BALL DIAMOND 2</t>
+  </si>
+  <si>
+    <t>SUNNYSIDE PUBLIC SCHOOL BASKETBALL COURT</t>
+  </si>
+  <si>
+    <t>MONTGOMERY PARK BASKEBALL COURT</t>
+  </si>
+  <si>
+    <t>TREMAINE PARK BASKETBALL COURT</t>
+  </si>
+  <si>
+    <t>FRANKLIN PARK BASKETBALL COURT</t>
+  </si>
+  <si>
+    <t>STANLEY PARK C.C. BASKETBALL COURT</t>
+  </si>
+  <si>
+    <t>EDEN OAK PARK 1/2 BASKETBALL COURT</t>
+  </si>
+  <si>
+    <t>CROSBY BASKETBALL COURT</t>
+  </si>
+  <si>
+    <t>CRESTVIEW PUBLIC SCHOOL BASKETBALL COURT</t>
+  </si>
+  <si>
+    <t>WEBER PARK BASKETBALL COURT</t>
+  </si>
+  <si>
+    <t>A R KAUFMAN FAMILY YMCA</t>
+  </si>
+  <si>
+    <t>JACK COUCH STADIUM</t>
+  </si>
+  <si>
+    <t>KITCHENER MEMORIAL AUDITORIUM COMPLEX</t>
+  </si>
+  <si>
+    <t>CENTENNIAL STADIUM</t>
+  </si>
+  <si>
+    <t>GRAND RIVER RECREATION COMPLEX</t>
+  </si>
+  <si>
+    <t>EASTWOOD C.I. TRACK AND FIELD</t>
+  </si>
+  <si>
+    <t>ROCKWAY CENTRE HORSESHOE PITCHES</t>
+  </si>
+  <si>
+    <t>MONTGOMERY PARK ACEPLACE</t>
+  </si>
+  <si>
+    <t>KAUFMAN PARK TRACK AND FIELD</t>
+  </si>
+  <si>
+    <t>FRANKLIN PARK MULTI-PURPOSE PAD</t>
+  </si>
+  <si>
+    <t>DOM CARDILLO TRAIL HORSESHOE PITCHES</t>
+  </si>
+  <si>
+    <t>K.M.A.C. SKATEBOARD PARK</t>
+  </si>
+  <si>
+    <t>HERITAGE GREENS LAWN BOWLING FIELD</t>
+  </si>
+  <si>
+    <t>IDLEWOOD PARK SWIMMING POOL</t>
+  </si>
+  <si>
+    <t>CAMERON HEIGHTS C.I. SWIMMING POOL</t>
+  </si>
+  <si>
+    <t>LYLE HALLMAN SWIMMING POOL</t>
+  </si>
+  <si>
+    <t>HOWARD ROBERTSON SCHOOL SOCCER FIELD</t>
+  </si>
+  <si>
+    <t>MORRISON PARK SOCCER FIELD-3</t>
+  </si>
+  <si>
+    <t>MORRISON PARK SOCCER FIELD-2</t>
+  </si>
+  <si>
+    <t>MORRISON PARK SOCCER FIELD-1</t>
+  </si>
+  <si>
+    <t>SUNNYSIDE PUBLIC SCHOOL SOCCER FIELD</t>
+  </si>
+  <si>
+    <t>IDLEWOOD PARK SOCCER FIELD</t>
+  </si>
+  <si>
+    <t>MONTGOMERY PARK SOCCER FIELD</t>
+  </si>
+  <si>
+    <t>EASTWOOD C.I. SOCCER FIELD</t>
+  </si>
+  <si>
+    <t>KAUFMAN PARK SOCCER FIELD-2</t>
+  </si>
+  <si>
+    <t>KAUFMAN PARK SOCCER FIELD-1</t>
+  </si>
+  <si>
+    <t>KNOLLWOOD PARK SOCCER FIELD</t>
+  </si>
+  <si>
+    <t>KITCHENER MEMORIAL AUDITORIUM SOCCER FIELD</t>
+  </si>
+  <si>
+    <t>EBY PARK SOCCER FIELD</t>
+  </si>
+  <si>
+    <t>LACKNER WOODS PUBLIC SCHOOL SOCCER FIELD</t>
+  </si>
+  <si>
+    <t>CRESTVIEW PUBLIC SCHOOL SOCCER FIELD-1</t>
+  </si>
+  <si>
+    <t>CRESTVIEW PUBLIC SCHOOL SOCCER FIELD-2</t>
+  </si>
+  <si>
+    <t>SMITHSON PUBLIC SCHOOL SOCCER FIELD-2</t>
+  </si>
+  <si>
+    <t>SMITHSON SCHOOL SOCCER FIELD-1</t>
+  </si>
+  <si>
+    <t>GRAND RIVER C.I. SOCCER FIELD 2</t>
+  </si>
+  <si>
+    <t>GRAND RIVER C.I. SOCCER FIELD 1</t>
+  </si>
+  <si>
+    <t>ROSEMOUNT SCHOOL FIELD HOCKEY-1</t>
+  </si>
+  <si>
+    <t>MACKENZIE KING SCHOOL SOCCER FIELD</t>
+  </si>
+  <si>
+    <t>SUNNYSIDE PUBLIC SCHOOL TENNIS COURT 1</t>
+  </si>
+  <si>
+    <t>SUNNYSIDE PUBLIC SCHOOL TENNIS COURT 2</t>
+  </si>
+  <si>
+    <t>MONTGOMERY PARK TENNIS COURT 2</t>
+  </si>
+  <si>
+    <t>MONTGOMERY PARK TENNIS COURT 1</t>
+  </si>
+  <si>
+    <t>KAUFMAN PARK TENNIS COURT 1</t>
+  </si>
+  <si>
+    <t>KAUFMAN PARK TENNIS COURT 2</t>
+  </si>
+  <si>
+    <t>KAUFMAN PARK TENNIS COURT 3</t>
+  </si>
+  <si>
+    <t>KAUFMAN PARK TENNIS COURT 4</t>
+  </si>
+  <si>
+    <t>FRANKLIN PARK TENNIS COURT 1</t>
+  </si>
+  <si>
+    <t>FRANKLIN PARK TENNIS COURT 2</t>
+  </si>
+  <si>
+    <t>EBY PARK TENNIS COURT</t>
+  </si>
+  <si>
+    <t>STANLEY PARK SENIOR PUBLIC SCHOOL TENNIS COURT 1</t>
+  </si>
+  <si>
+    <t>STANLEY PARK SENIOR PUBLIC SCHOOL TENNIS COURT 2</t>
+  </si>
+  <si>
+    <t>STANLEY PARK SENIOR PUBLIC SCHOOL TENNIS COURT 3</t>
+  </si>
+  <si>
+    <t>WEBER PARK TENNIS COURT</t>
+  </si>
+  <si>
+    <t>HERITAGE PARK TENNIS COURT 1</t>
+  </si>
+  <si>
+    <t>HERITAGE PARK TENNIS COURT 2</t>
+  </si>
+  <si>
+    <t>ONTARIO PROBATION AND PAROLE</t>
+  </si>
+  <si>
+    <t>OATC KITCHENER EAST</t>
+  </si>
+  <si>
+    <t>TOWARDS RECOVERY CLINIC</t>
+  </si>
+  <si>
+    <t>K-W COUNSELLING SERVICES INC</t>
+  </si>
+  <si>
+    <t>RAY OF HOPE - YOUTH ADDICTION SERVICES</t>
+  </si>
+  <si>
+    <t>ANSELMA HOUSE</t>
+  </si>
+  <si>
+    <t>HOUSE OF FRIENDSHIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -178,7 +1258,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -188,65 +1268,58 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -436,26 +1509,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.38"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +1542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -474,187 +1550,188 @@
         <v>43.4536765</v>
       </c>
       <c r="C2" s="2">
-        <v>-80.440736</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>-80.440736000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>43.4336322</v>
+        <v>43.433632199999998</v>
       </c>
       <c r="C3" s="2">
-        <v>-80.4316624</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>-80.431662399999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>43.456268</v>
+        <v>43.456268000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>-80.460413</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>-80.460413000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>43.4559758</v>
+        <v>43.455975799999997</v>
       </c>
       <c r="C5" s="2">
-        <v>-80.4645538</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-80.464553800000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>43.439702</v>
+        <v>43.439701999999997</v>
       </c>
       <c r="C6" s="2">
-        <v>-80.4608988</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>-80.460898799999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>43.432478</v>
+        <v>43.432478000000003</v>
       </c>
       <c r="C7" s="2">
-        <v>-80.446508</v>
+        <v>-80.446507999999994</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>43.432915</v>
+        <v>43.432915000000001</v>
       </c>
       <c r="C8" s="2">
-        <v>-80.448246</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>-80.448245999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>43.4291788</v>
+        <v>43.429178800000003</v>
       </c>
       <c r="C9" s="2">
-        <v>-80.4418355</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>-80.441835499999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>43.458495</v>
+        <v>43.458494999999999</v>
       </c>
       <c r="C10" s="2">
-        <v>-80.475366</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>-80.475365999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>43.443175</v>
+        <v>43.443174999999997</v>
       </c>
       <c r="C11" s="2">
-        <v>-80.476952</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>-80.476951999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>43.4492777</v>
+        <v>43.449277700000003</v>
       </c>
       <c r="C12" s="2">
-        <v>-80.4826162</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>-80.482616199999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>43.4468342</v>
+        <v>43.446834199999998</v>
       </c>
       <c r="C13" s="2">
-        <v>-80.4861716</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>-80.486171600000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>43.487272</v>
+        <v>43.487271999999997</v>
       </c>
       <c r="C14" s="2">
-        <v>-80.464168</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-80.464168000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>43.47234</v>
+        <v>43.472340000000003</v>
       </c>
       <c r="C15" s="2">
-        <v>-80.48047</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>-80.480469999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>43.4228593</v>
+        <v>43.422859299999999</v>
       </c>
       <c r="C16" s="2">
-        <v>-80.4609831</v>
+        <v>-80.460983100000007</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="37.88"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,222 +1742,223 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3">
-        <v>43.449285</v>
+        <v>43.449285000000003</v>
       </c>
       <c r="C2" s="1">
-        <v>-80.443972</v>
+        <v>-80.443972000000002</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3">
-        <v>43.45222</v>
+        <v>43.452219999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>-80.443856</v>
+        <v>-80.443855999999997</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="4">
-        <v>43.461626</v>
+        <v>43.461626000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>-80.469998</v>
+        <v>-80.469998000000004</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="3">
-        <v>43.45624</v>
+        <v>43.456240000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>-80.461676</v>
+        <v>-80.461675999999997</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="4">
-        <v>43.461516</v>
+        <v>43.461516000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>-80.440359</v>
+        <v>-80.440359000000001</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="3">
-        <v>43.459388</v>
+        <v>43.459387999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>-80.446518</v>
+        <v>-80.446517999999998</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="4">
-        <v>43.460638</v>
+        <v>43.460638000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>-80.441728</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>-80.441727999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="1">
-        <v>43.46534</v>
+        <v>43.465339999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>-80.460379</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>-80.460379000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1">
-        <v>43.456637</v>
+        <v>43.456637000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>-80.430103</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>-80.430103000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1">
-        <v>43.455909</v>
+        <v>43.455908999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>-80.431584</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>-80.431584000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1">
-        <v>43.429788</v>
+        <v>43.429788000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>-80.434812</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>-80.434811999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>43.431038</v>
+        <v>43.431038000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>-80.437165</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>-80.437164999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="1">
-        <v>43.431606</v>
+        <v>43.431606000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>-80.441076</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>-80.441075999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="3">
-        <v>43.432113</v>
+        <v>43.432113000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>-80.43894</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>-80.438940000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="1">
-        <v>43.432915</v>
+        <v>43.432915000000001</v>
       </c>
       <c r="C16" s="6">
-        <v>-80.439077</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>-80.439076999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="1">
-        <v>43.434929</v>
+        <v>43.434928999999997</v>
       </c>
       <c r="C17" s="6">
-        <v>-80.449065</v>
+        <v>-80.449065000000004</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.63"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,28 +1972,1821 @@
         <v>40</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8">
+        <v>43.449840000000002</v>
+      </c>
+      <c r="C2" s="8">
+        <v>-80.4649</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43.434730000000002</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-80.441400000000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8">
+        <v>43.435740000000003</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-80.463800000000006</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8">
+        <v>43.436329999999998</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-80.451800000000006</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8">
+        <v>43.439610000000002</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-80.460800000000006</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="8">
+        <v>43.439660000000003</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-80.447299999999998</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="8">
+        <v>43.444409999999998</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-80.447400000000002</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8">
+        <v>43.444609999999997</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-80.481800000000007</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="8">
+        <v>43.445399999999999</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-80.414699999999996</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="8">
+        <v>43.446570000000001</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-80.472099999999998</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="8">
+        <v>43.448369999999997</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-80.448700000000002</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="8">
+        <v>43.448999999999998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>-80.4114</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="8">
+        <v>43.450980000000001</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-80.470500000000001</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="8">
+        <v>43.452440000000003</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-80.4191</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="8">
+        <v>43.452500000000001</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-80.482399999999998</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="8">
+        <v>43.453659999999999</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-80.447900000000004</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="8">
+        <v>43.453899999999997</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-80.440600000000003</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="8">
+        <v>43.453969999999998</v>
+      </c>
+      <c r="C19" s="8">
+        <v>-80.461799999999997</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="8">
+        <v>43.457459999999998</v>
+      </c>
+      <c r="C20" s="8">
+        <v>-80.437299999999993</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="8">
+        <v>43.461730000000003</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-80.4465</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="8">
+        <v>43.461770000000001</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-80.458299999999994</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="8">
+        <v>43.465989999999998</v>
+      </c>
+      <c r="C23" s="8">
+        <v>-80.447599999999994</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="8">
+        <v>43.430759999999999</v>
+      </c>
+      <c r="C24" s="8">
+        <v>-80.456999999999994</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="8">
+        <v>43.430959999999999</v>
+      </c>
+      <c r="C25" s="8">
+        <v>-80.411100000000005</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="8">
+        <v>43.431519999999999</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-80.407499999999999</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="8">
+        <v>43.431870000000004</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-80.4251</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="8">
+        <v>43.432270000000003</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-80.458600000000004</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="8">
+        <v>43.43309</v>
+      </c>
+      <c r="C29" s="8">
+        <v>-80.459299999999999</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="8">
+        <v>43.433100000000003</v>
+      </c>
+      <c r="C30" s="8">
+        <v>-80.4328</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="8">
+        <v>43.43374</v>
+      </c>
+      <c r="C31" s="8">
+        <v>-80.421099999999996</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="8">
+        <v>43.434730000000002</v>
+      </c>
+      <c r="C32" s="8">
+        <v>-80.425600000000003</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="8">
+        <v>43.43533</v>
+      </c>
+      <c r="C33" s="8">
+        <v>-80.482900000000001</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="8">
+        <v>43.435769999999998</v>
+      </c>
+      <c r="C34" s="8">
+        <v>-80.426199999999994</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="8">
+        <v>43.436160000000001</v>
+      </c>
+      <c r="C35" s="8">
+        <v>-80.429400000000001</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="8">
+        <v>43.436819999999997</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-80.4315</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="8">
+        <v>43.436970000000002</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-80.427400000000006</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="8">
+        <v>43.438079999999999</v>
+      </c>
+      <c r="C38" s="8">
+        <v>-80.428700000000006</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="8">
+        <v>43.438139999999997</v>
+      </c>
+      <c r="C39" s="8">
+        <v>-80.462900000000005</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="8">
+        <v>43.438409999999998</v>
+      </c>
+      <c r="C40" s="8">
+        <v>-80.474000000000004</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="8">
+        <v>43.438569999999999</v>
+      </c>
+      <c r="C41" s="8">
+        <v>-80.436700000000002</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="8">
+        <v>43.438609999999997</v>
+      </c>
+      <c r="C42" s="8">
+        <v>-80.450699999999998</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="8">
+        <v>43.439120000000003</v>
+      </c>
+      <c r="C43" s="8">
+        <v>-80.412499999999994</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="8">
+        <v>43.43927</v>
+      </c>
+      <c r="C44" s="8">
+        <v>-80.4161</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="8">
+        <v>43.439480000000003</v>
+      </c>
+      <c r="C45" s="8">
+        <v>-80.4756</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="8">
+        <v>43.439639999999997</v>
+      </c>
+      <c r="C46" s="8">
+        <v>-80.430499999999995</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="8">
+        <v>43.439689999999999</v>
+      </c>
+      <c r="C47" s="8">
+        <v>-80.432199999999995</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="8">
+        <v>43.440010000000001</v>
+      </c>
+      <c r="C48" s="8">
+        <v>-80.428399999999996</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="8">
+        <v>43.440150000000003</v>
+      </c>
+      <c r="C49" s="8">
+        <v>-80.478700000000003</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="8">
+        <v>43.440350000000002</v>
+      </c>
+      <c r="C50" s="8">
+        <v>-80.438299999999998</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="8">
+        <v>43.440429999999999</v>
+      </c>
+      <c r="C51" s="8">
+        <v>-80.465199999999996</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="8">
+        <v>43.440510000000003</v>
+      </c>
+      <c r="C52" s="8">
+        <v>-80.477800000000002</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="8">
+        <v>43.44068</v>
+      </c>
+      <c r="C53" s="8">
+        <v>-80.407600000000002</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="8">
+        <v>43.441310000000001</v>
+      </c>
+      <c r="C54" s="8">
+        <v>-80.409899999999993</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="8">
+        <v>43.441389999999998</v>
+      </c>
+      <c r="C55" s="8">
+        <v>-80.4572</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="8">
+        <v>43.441479999999999</v>
+      </c>
+      <c r="C56" s="8">
+        <v>-80.484399999999994</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="8">
+        <v>43.441609999999997</v>
+      </c>
+      <c r="C57" s="8">
+        <v>-80.421199999999999</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="8">
+        <v>43.44171</v>
+      </c>
+      <c r="C58" s="8">
+        <v>-80.483400000000003</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="8">
+        <v>43.44173</v>
+      </c>
+      <c r="C59" s="8">
+        <v>-80.480699999999999</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="8">
+        <v>43.442279999999997</v>
+      </c>
+      <c r="C60" s="8">
+        <v>-80.480800000000002</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="8">
+        <v>43.44229</v>
+      </c>
+      <c r="C61" s="8">
+        <v>-80.415599999999998</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="8">
+        <v>43.44323</v>
+      </c>
+      <c r="C62" s="8">
+        <v>-80.434899999999999</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="8">
+        <v>43.443249999999999</v>
+      </c>
+      <c r="C63" s="8">
+        <v>-80.423100000000005</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="8">
+        <v>43.443289999999998</v>
+      </c>
+      <c r="C64" s="8">
+        <v>-80.482399999999998</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="8">
+        <v>43.443350000000002</v>
+      </c>
+      <c r="C65" s="8">
+        <v>-80.419200000000004</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="8">
+        <v>43.443480000000001</v>
+      </c>
+      <c r="C66" s="8">
+        <v>-80.407799999999995</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="8">
+        <v>43.444029999999998</v>
+      </c>
+      <c r="C67" s="8">
+        <v>-80.407700000000006</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="8">
+        <v>43.444040000000001</v>
+      </c>
+      <c r="C68" s="8">
+        <v>-80.405299999999997</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="8">
+        <v>43.444099999999999</v>
+      </c>
+      <c r="C69" s="8">
+        <v>-80.466800000000006</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="8">
+        <v>43.444110000000002</v>
+      </c>
+      <c r="C70" s="8">
+        <v>-80.445800000000006</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="8">
+        <v>43.444479999999999</v>
+      </c>
+      <c r="C71" s="8">
+        <v>-80.426100000000005</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="8">
+        <v>43.445349999999998</v>
+      </c>
+      <c r="C72" s="8">
+        <v>-80.426199999999994</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="8">
+        <v>43.445410000000003</v>
+      </c>
+      <c r="C73" s="8">
+        <v>-80.4602</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="8">
+        <v>43.445610000000002</v>
+      </c>
+      <c r="C74" s="8">
+        <v>-80.433099999999996</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="8">
+        <v>43.445630000000001</v>
+      </c>
+      <c r="C75" s="8">
+        <v>-80.411799999999999</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="8">
+        <v>43.446120000000001</v>
+      </c>
+      <c r="C76" s="8">
+        <v>-80.473100000000002</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="8">
+        <v>43.446260000000002</v>
+      </c>
+      <c r="C77" s="8">
+        <v>-80.422399999999996</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="8">
+        <v>43.446730000000002</v>
+      </c>
+      <c r="C78" s="8">
+        <v>-80.405100000000004</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="8">
+        <v>43.446930000000002</v>
+      </c>
+      <c r="C79" s="8">
+        <v>-80.447900000000004</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="8">
+        <v>43.44697</v>
+      </c>
+      <c r="C80" s="8">
+        <v>-80.439300000000003</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="8">
+        <v>43.447200000000002</v>
+      </c>
+      <c r="C81" s="8">
+        <v>-80.433000000000007</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="8">
+        <v>43.447229999999998</v>
+      </c>
+      <c r="C82" s="8">
+        <v>-80.448700000000002</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" s="8">
+        <v>43.447369999999999</v>
+      </c>
+      <c r="C83" s="8">
+        <v>-80.427599999999998</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" s="8">
+        <v>43.447369999999999</v>
+      </c>
+      <c r="C84" s="8">
+        <v>-80.470399999999998</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="8">
+        <v>43.447659999999999</v>
+      </c>
+      <c r="C85" s="8">
+        <v>-80.447500000000005</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="8">
+        <v>43.44782</v>
+      </c>
+      <c r="C86" s="8">
+        <v>-80.464699999999993</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="8">
+        <v>43.447850000000003</v>
+      </c>
+      <c r="C87" s="8">
+        <v>-80.427599999999998</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="8">
+        <v>43.447920000000003</v>
+      </c>
+      <c r="C88" s="8">
+        <v>-80.444999999999993</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="8">
+        <v>43.448079999999997</v>
+      </c>
+      <c r="C89" s="8">
+        <v>-80.477599999999995</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="8">
+        <v>43.448129999999999</v>
+      </c>
+      <c r="C90" s="8">
+        <v>-80.405799999999999</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="8">
+        <v>43.44838</v>
+      </c>
+      <c r="C91" s="8">
+        <v>-80.441599999999994</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="8">
+        <v>43.448439999999998</v>
+      </c>
+      <c r="C92" s="8">
+        <v>-80.4131</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="8">
+        <v>43.448500000000003</v>
+      </c>
+      <c r="C93" s="8">
+        <v>-80.480199999999996</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" s="8">
+        <v>43.44867</v>
+      </c>
+      <c r="C94" s="8">
+        <v>-80.415499999999994</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="8">
+        <v>43.44905</v>
+      </c>
+      <c r="C95" s="8">
+        <v>-80.481499999999997</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="8">
+        <v>43.44932</v>
+      </c>
+      <c r="C96" s="8">
+        <v>-80.422399999999996</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="8">
+        <v>43.449950000000001</v>
+      </c>
+      <c r="C97" s="8">
+        <v>-80.431700000000006</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="8">
+        <v>43.44997</v>
+      </c>
+      <c r="C98" s="8">
+        <v>-80.42</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="8">
+        <v>43.450470000000003</v>
+      </c>
+      <c r="C99" s="8">
+        <v>-80.437299999999993</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="8">
+        <v>43.451369999999997</v>
+      </c>
+      <c r="C100" s="8">
+        <v>-80.477900000000005</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" s="8">
+        <v>43.451999999999998</v>
+      </c>
+      <c r="C101" s="8">
+        <v>-80.417000000000002</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B102" s="8">
+        <v>43.452530000000003</v>
+      </c>
+      <c r="C102" s="8">
+        <v>-80.449100000000001</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="8">
+        <v>43.452770000000001</v>
+      </c>
+      <c r="C103" s="8">
+        <v>-80.454700000000003</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" s="8">
+        <v>43.45335</v>
+      </c>
+      <c r="C104" s="8">
+        <v>-80.4666</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B105" s="8">
+        <v>43.454430000000002</v>
+      </c>
+      <c r="C105" s="8">
+        <v>-80.428700000000006</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B106" s="8">
+        <v>43.455680000000001</v>
+      </c>
+      <c r="C106" s="8">
+        <v>-80.409000000000006</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="8">
+        <v>43.455860000000001</v>
+      </c>
+      <c r="C107" s="8">
+        <v>-80.439499999999995</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B108" s="8">
+        <v>43.455979999999997</v>
+      </c>
+      <c r="C108" s="8">
+        <v>-80.481700000000004</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="8">
+        <v>43.45599</v>
+      </c>
+      <c r="C109" s="8">
+        <v>-80.404300000000006</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B110" s="8">
+        <v>43.456870000000002</v>
+      </c>
+      <c r="C110" s="8">
+        <v>-80.433400000000006</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B111" s="8">
+        <v>43.457360000000001</v>
+      </c>
+      <c r="C111" s="8">
+        <v>-80.454400000000007</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112" s="8">
+        <v>43.458370000000002</v>
+      </c>
+      <c r="C112" s="8">
+        <v>-80.474400000000003</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B113" s="8">
+        <v>43.458390000000001</v>
+      </c>
+      <c r="C113" s="8">
+        <v>-80.417000000000002</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B114" s="8">
+        <v>43.458860000000001</v>
+      </c>
+      <c r="C114" s="8">
+        <v>-80.427599999999998</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B115" s="8">
+        <v>43.459670000000003</v>
+      </c>
+      <c r="C115" s="8">
+        <v>-80.483099999999993</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" s="8">
+        <v>43.46002</v>
+      </c>
+      <c r="C116" s="8">
+        <v>-80.430199999999999</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B117" s="8">
+        <v>43.463239999999999</v>
+      </c>
+      <c r="C117" s="8">
+        <v>-80.431899999999999</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" s="8">
+        <v>43.463239999999999</v>
+      </c>
+      <c r="C118" s="8">
+        <v>-80.433999999999997</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="8">
+        <v>43.463450000000002</v>
+      </c>
+      <c r="C119" s="8">
+        <v>-80.458200000000005</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="8">
+        <v>43.46367</v>
+      </c>
+      <c r="C120" s="8">
+        <v>-80.480199999999996</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" s="8">
+        <v>43.463749999999997</v>
+      </c>
+      <c r="C121" s="8">
+        <v>-80.447400000000002</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="8">
+        <v>43.463880000000003</v>
+      </c>
+      <c r="C122" s="8">
+        <v>-80.434200000000004</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" s="8">
+        <v>43.464080000000003</v>
+      </c>
+      <c r="C123" s="8">
+        <v>-80.452100000000002</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B124" s="8">
+        <v>43.464399999999998</v>
+      </c>
+      <c r="C124" s="8">
+        <v>-80.422899999999998</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B125" s="8">
+        <v>43.464530000000003</v>
+      </c>
+      <c r="C125" s="8">
+        <v>-80.452600000000004</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" s="8">
+        <v>43.464599999999997</v>
+      </c>
+      <c r="C126" s="8">
+        <v>-80.430999999999997</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" s="8">
+        <v>43.464790000000001</v>
+      </c>
+      <c r="C127" s="8">
+        <v>-80.424899999999994</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="8">
+        <v>43.464959999999998</v>
+      </c>
+      <c r="C128" s="8">
+        <v>-80.476299999999995</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B129" s="8">
+        <v>43.466329999999999</v>
+      </c>
+      <c r="C129" s="8">
+        <v>-80.4435</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.88"/>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,18 +3797,2603 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="8">
-        <v>43.4578356791322</v>
-      </c>
-      <c r="C2" s="8">
-        <v>-80.4366774618739</v>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="10">
+        <v>43.457835679132202</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-80.436677461873899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43.439660000000003</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-80.466800000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="8">
+        <v>43.448140000000002</v>
+      </c>
+      <c r="C4" s="8">
+        <v>-80.449200000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="8">
+        <v>43.430970000000002</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-80.479900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="8">
+        <v>43.432780000000001</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-80.470699999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="8">
+        <v>43.444560000000003</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-80.478499999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="8">
+        <v>43.444850000000002</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-80.478700000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="8">
+        <v>43.455649999999999</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-80.477900000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="8">
+        <v>43.452190000000002</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-80.484200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="8">
+        <v>43.45223</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-80.484099999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="8">
+        <v>43.456249999999997</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-80.477500000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="8">
+        <v>43.456270000000004</v>
+      </c>
+      <c r="C13" s="8">
+        <v>-80.477500000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="8">
+        <v>43.458750000000002</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-80.472800000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="8">
+        <v>43.441130000000001</v>
+      </c>
+      <c r="C15" s="8">
+        <v>-80.411199999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="8">
+        <v>43.45046</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-80.437299999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="8">
+        <v>43.458300000000001</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-80.475399999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="8">
+        <v>43.46575</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-80.443200000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="8">
+        <v>43.431820000000002</v>
+      </c>
+      <c r="C19" s="8">
+        <v>-80.477800000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="8">
+        <v>43.431910000000002</v>
+      </c>
+      <c r="C20" s="8">
+        <v>-80.484099999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="8">
+        <v>43.431930000000001</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-80.445300000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="8">
+        <v>43.43262</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-80.452100000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="8">
+        <v>43.433019999999999</v>
+      </c>
+      <c r="C23" s="8">
+        <v>-80.479600000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="8">
+        <v>43.433619999999998</v>
+      </c>
+      <c r="C24" s="8">
+        <v>-80.431700000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="8">
+        <v>43.433929999999997</v>
+      </c>
+      <c r="C25" s="8">
+        <v>-80.479100000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="8">
+        <v>43.434489999999997</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-80.475499999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="8">
+        <v>43.434550000000002</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-80.475399999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="8">
+        <v>43.435099999999998</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-80.4405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="8">
+        <v>43.43533</v>
+      </c>
+      <c r="C29" s="8">
+        <v>-80.462500000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="8">
+        <v>43.4375</v>
+      </c>
+      <c r="C30" s="8">
+        <v>-80.455100000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="8">
+        <v>43.437510000000003</v>
+      </c>
+      <c r="C31" s="8">
+        <v>-80.455200000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="8">
+        <v>43.441310000000001</v>
+      </c>
+      <c r="C32" s="8">
+        <v>-80.466800000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="8">
+        <v>43.44211</v>
+      </c>
+      <c r="C33" s="8">
+        <v>-80.482100000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="8">
+        <v>43.442169999999997</v>
+      </c>
+      <c r="C34" s="8">
+        <v>-80.476100000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="8">
+        <v>43.442520000000002</v>
+      </c>
+      <c r="C35" s="8">
+        <v>-80.469499999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="8">
+        <v>43.44258</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-80.446600000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="8">
+        <v>43.442659999999997</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-80.430599999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="8">
+        <v>43.443390000000001</v>
+      </c>
+      <c r="C38" s="8">
+        <v>-80.471299999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="8">
+        <v>43.4437</v>
+      </c>
+      <c r="C39" s="8">
+        <v>-80.467299999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="8">
+        <v>43.444279999999999</v>
+      </c>
+      <c r="C40" s="8">
+        <v>-80.476100000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="8">
+        <v>43.444580000000002</v>
+      </c>
+      <c r="C41" s="8">
+        <v>-80.478300000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="8">
+        <v>43.444609999999997</v>
+      </c>
+      <c r="C42" s="8">
+        <v>-80.478399999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="8">
+        <v>43.444650000000003</v>
+      </c>
+      <c r="C43" s="8">
+        <v>-80.478499999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="8">
+        <v>43.444679999999998</v>
+      </c>
+      <c r="C44" s="8">
+        <v>-80.4786</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="8">
+        <v>43.445880000000002</v>
+      </c>
+      <c r="C45" s="8">
+        <v>-80.475300000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" s="8">
+        <v>43.446899999999999</v>
+      </c>
+      <c r="C46" s="8">
+        <v>-80.472800000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="8">
+        <v>43.446910000000003</v>
+      </c>
+      <c r="C47" s="8">
+        <v>-80.441299999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" s="8">
+        <v>43.447220000000002</v>
+      </c>
+      <c r="C48" s="8">
+        <v>-80.481099999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" s="8">
+        <v>43.447789999999998</v>
+      </c>
+      <c r="C49" s="8">
+        <v>-80.484800000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="8">
+        <v>43.447929999999999</v>
+      </c>
+      <c r="C50" s="8">
+        <v>-80.453599999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" s="8">
+        <v>43.448239999999998</v>
+      </c>
+      <c r="C51" s="8">
+        <v>-80.481499999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" s="8">
+        <v>43.448909999999998</v>
+      </c>
+      <c r="C52" s="8">
+        <v>-80.448800000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" s="8">
+        <v>43.449240000000003</v>
+      </c>
+      <c r="C53" s="8">
+        <v>-80.47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="8">
+        <v>43.44943</v>
+      </c>
+      <c r="C54" s="8">
+        <v>-80.483900000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="8">
+        <v>43.449890000000003</v>
+      </c>
+      <c r="C55" s="8">
+        <v>-80.441100000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="8">
+        <v>43.450310000000002</v>
+      </c>
+      <c r="C56" s="8">
+        <v>-80.470699999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" s="8">
+        <v>43.450449999999996</v>
+      </c>
+      <c r="C57" s="8">
+        <v>-80.423599999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="8">
+        <v>43.452300000000001</v>
+      </c>
+      <c r="C58" s="8">
+        <v>-80.480999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" s="8">
+        <v>43.454030000000003</v>
+      </c>
+      <c r="C59" s="8">
+        <v>-80.432500000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="8">
+        <v>43.456130000000002</v>
+      </c>
+      <c r="C60" s="8">
+        <v>-80.464100000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" s="8">
+        <v>43.456139999999998</v>
+      </c>
+      <c r="C61" s="8">
+        <v>-80.477699999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" s="8">
+        <v>43.456519999999998</v>
+      </c>
+      <c r="C62" s="8">
+        <v>-80.459699999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" s="8">
+        <v>43.457389999999997</v>
+      </c>
+      <c r="C63" s="8">
+        <v>-80.448400000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="8">
+        <v>43.458019999999998</v>
+      </c>
+      <c r="C64" s="8">
+        <v>-80.450199999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="8">
+        <v>43.464440000000003</v>
+      </c>
+      <c r="C65" s="8">
+        <v>-80.457599999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="8">
+        <v>43.46481</v>
+      </c>
+      <c r="C66" s="8">
+        <v>-80.460300000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" s="8">
+        <v>43.430050000000001</v>
+      </c>
+      <c r="C67" s="8">
+        <v>-80.465400000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="8">
+        <v>43.430199999999999</v>
+      </c>
+      <c r="C68" s="8">
+        <v>-80.465100000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="8">
+        <v>43.430239999999998</v>
+      </c>
+      <c r="C69" s="8">
+        <v>-80.429500000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B70" s="8">
+        <v>43.430610000000001</v>
+      </c>
+      <c r="C70" s="8">
+        <v>-80.414299999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" s="8">
+        <v>43.433349999999997</v>
+      </c>
+      <c r="C71" s="8">
+        <v>-80.432599999999994</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" s="8">
+        <v>43.435319999999997</v>
+      </c>
+      <c r="C72" s="8">
+        <v>-80.482900000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" s="8">
+        <v>43.436709999999998</v>
+      </c>
+      <c r="C73" s="8">
+        <v>-80.431700000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B74" s="8">
+        <v>43.43676</v>
+      </c>
+      <c r="C74" s="8">
+        <v>-80.431600000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" s="8">
+        <v>43.438380000000002</v>
+      </c>
+      <c r="C75" s="8">
+        <v>-80.436800000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" s="8">
+        <v>43.438400000000001</v>
+      </c>
+      <c r="C76" s="8">
+        <v>-80.450699999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" s="8">
+        <v>43.438760000000002</v>
+      </c>
+      <c r="C77" s="8">
+        <v>-80.450699999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" s="8">
+        <v>43.439140000000002</v>
+      </c>
+      <c r="C78" s="8">
+        <v>-80.4161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" s="8">
+        <v>43.44041</v>
+      </c>
+      <c r="C79" s="8">
+        <v>-80.457400000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" s="8">
+        <v>43.440429999999999</v>
+      </c>
+      <c r="C80" s="8">
+        <v>-80.465100000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="8">
+        <v>43.441499999999998</v>
+      </c>
+      <c r="C81" s="8">
+        <v>-80.410399999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82" s="8">
+        <v>43.442659999999997</v>
+      </c>
+      <c r="C82" s="8">
+        <v>-80.4846</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" s="8">
+        <v>43.443770000000001</v>
+      </c>
+      <c r="C83" s="8">
+        <v>-80.447000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="8">
+        <v>43.444099999999999</v>
+      </c>
+      <c r="C84" s="8">
+        <v>-80.446299999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" s="8">
+        <v>43.444699999999997</v>
+      </c>
+      <c r="C85" s="8">
+        <v>-80.445400000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B86" s="8">
+        <v>43.444789999999998</v>
+      </c>
+      <c r="C86" s="8">
+        <v>-80.446899999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" s="8">
+        <v>43.446359999999999</v>
+      </c>
+      <c r="C87" s="8">
+        <v>-80.470500000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B88" s="8">
+        <v>43.447180000000003</v>
+      </c>
+      <c r="C88" s="8">
+        <v>-80.427199999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B89" s="8">
+        <v>43.447330000000001</v>
+      </c>
+      <c r="C89" s="8">
+        <v>-80.427300000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B90" s="8">
+        <v>43.44746</v>
+      </c>
+      <c r="C90" s="8">
+        <v>-80.446799999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B91" s="8">
+        <v>43.447879999999998</v>
+      </c>
+      <c r="C91" s="8">
+        <v>-80.4482</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B92" s="8">
+        <v>43.447920000000003</v>
+      </c>
+      <c r="C92" s="8">
+        <v>-80.448499999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" s="8">
+        <v>43.448399999999999</v>
+      </c>
+      <c r="C93" s="8">
+        <v>-80.4114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" s="8">
+        <v>43.448540000000001</v>
+      </c>
+      <c r="C94" s="8">
+        <v>-80.411699999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B95" s="8">
+        <v>43.448540000000001</v>
+      </c>
+      <c r="C95" s="8">
+        <v>-80.412999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="8">
+        <v>43.448610000000002</v>
+      </c>
+      <c r="C96" s="8">
+        <v>-80.412800000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" s="8">
+        <v>43.450760000000002</v>
+      </c>
+      <c r="C97" s="8">
+        <v>-80.436899999999994</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B98" s="8">
+        <v>43.450960000000002</v>
+      </c>
+      <c r="C98" s="8">
+        <v>-80.437100000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B99" s="8">
+        <v>43.451340000000002</v>
+      </c>
+      <c r="C99" s="8">
+        <v>-80.477900000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B100" s="8">
+        <v>43.45167</v>
+      </c>
+      <c r="C100" s="8">
+        <v>-80.470299999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B101" s="8">
+        <v>43.452579999999998</v>
+      </c>
+      <c r="C101" s="8">
+        <v>-80.416499999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B102" s="8">
+        <v>43.452599999999997</v>
+      </c>
+      <c r="C102" s="8">
+        <v>-80.483099999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B103" s="8">
+        <v>43.45261</v>
+      </c>
+      <c r="C103" s="8">
+        <v>-80.403700000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" s="8">
+        <v>43.4527</v>
+      </c>
+      <c r="C104" s="8">
+        <v>-80.416799999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B105" s="8">
+        <v>43.452860000000001</v>
+      </c>
+      <c r="C105" s="8">
+        <v>-80.448800000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B106" s="8">
+        <v>43.453330000000001</v>
+      </c>
+      <c r="C106" s="8">
+        <v>-80.442099999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" s="8">
+        <v>43.454360000000001</v>
+      </c>
+      <c r="C107" s="8">
+        <v>-80.460700000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B108" s="8">
+        <v>43.454700000000003</v>
+      </c>
+      <c r="C108" s="8">
+        <v>-80.428899999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B109" s="8">
+        <v>43.454790000000003</v>
+      </c>
+      <c r="C109" s="8">
+        <v>-80.429000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B110" s="8">
+        <v>43.454999999999998</v>
+      </c>
+      <c r="C110" s="8">
+        <v>-80.462100000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B111" s="8">
+        <v>43.455880000000001</v>
+      </c>
+      <c r="C111" s="8">
+        <v>-80.439499999999995</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" s="8">
+        <v>43.455970000000001</v>
+      </c>
+      <c r="C112" s="8">
+        <v>-80.4816</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B113" s="8">
+        <v>43.456020000000002</v>
+      </c>
+      <c r="C113" s="8">
+        <v>-80.439800000000005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B114" s="8">
+        <v>43.456110000000002</v>
+      </c>
+      <c r="C114" s="8">
+        <v>-80.439599999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" s="8">
+        <v>43.45628</v>
+      </c>
+      <c r="C115" s="8">
+        <v>-80.433499999999995</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B116" s="8">
+        <v>43.457230000000003</v>
+      </c>
+      <c r="C116" s="8">
+        <v>-80.454700000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B117" s="8">
+        <v>43.457250000000002</v>
+      </c>
+      <c r="C117" s="8">
+        <v>-80.454599999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B118" s="8">
+        <v>43.458539999999999</v>
+      </c>
+      <c r="C118" s="8">
+        <v>-80.475399999999993</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B119" s="8">
+        <v>43.458629999999999</v>
+      </c>
+      <c r="C119" s="8">
+        <v>-80.475200000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120" s="8">
+        <v>43.459829999999997</v>
+      </c>
+      <c r="C120" s="8">
+        <v>-80.484899999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B121" s="8">
+        <v>43.462249999999997</v>
+      </c>
+      <c r="C121" s="8">
+        <v>-80.4465</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B122" s="8">
+        <v>43.463230000000003</v>
+      </c>
+      <c r="C122" s="8">
+        <v>-80.433400000000006</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B123" s="8">
+        <v>43.463349999999998</v>
+      </c>
+      <c r="C123" s="8">
+        <v>-80.433300000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B124" s="8">
+        <v>43.464359999999999</v>
+      </c>
+      <c r="C124" s="8">
+        <v>-80.452500000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125" s="8">
+        <v>43.464550000000003</v>
+      </c>
+      <c r="C125" s="8">
+        <v>-80.448099999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B126" s="8">
+        <v>43.464590000000001</v>
+      </c>
+      <c r="C126" s="8">
+        <v>-80.447900000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B127" s="8">
+        <v>43.465299999999999</v>
+      </c>
+      <c r="C127" s="8">
+        <v>-80.447599999999994</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B128" s="8">
+        <v>43.46546</v>
+      </c>
+      <c r="C128" s="8">
+        <v>-80.447500000000005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B129" s="8">
+        <v>43.430349999999997</v>
+      </c>
+      <c r="C129" s="8">
+        <v>-80.441699999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B130" s="8">
+        <v>43.433979999999998</v>
+      </c>
+      <c r="C130" s="8">
+        <v>-80.443700000000007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B131" s="8">
+        <v>43.434440000000002</v>
+      </c>
+      <c r="C131" s="8">
+        <v>-80.480099999999993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B132" s="8">
+        <v>43.434930000000001</v>
+      </c>
+      <c r="C132" s="8">
+        <v>-80.443799999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B133" s="8">
+        <v>43.435780000000001</v>
+      </c>
+      <c r="C133" s="8">
+        <v>-80.439800000000005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B134" s="8">
+        <v>43.440849999999998</v>
+      </c>
+      <c r="C134" s="8">
+        <v>-80.444699999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B135" s="8">
+        <v>43.445619999999998</v>
+      </c>
+      <c r="C135" s="8">
+        <v>-80.469099999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B136" s="8">
+        <v>43.456519999999998</v>
+      </c>
+      <c r="C136" s="8">
+        <v>-80.4739</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B137" s="8">
+        <v>43.447009999999999</v>
+      </c>
+      <c r="C137" s="8">
+        <v>-80.467600000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B138" s="8">
+        <v>43.447490000000002</v>
+      </c>
+      <c r="C138" s="8">
+        <v>-80.466200000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B139" s="8">
+        <v>43.456470000000003</v>
+      </c>
+      <c r="C139" s="8">
+        <v>-80.435100000000006</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B140" s="8">
+        <v>43.430320000000002</v>
+      </c>
+      <c r="C140" s="8">
+        <v>-80.458799999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141" s="8">
+        <v>43.430439999999997</v>
+      </c>
+      <c r="C141" s="8">
+        <v>-80.4148</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B142" s="8">
+        <v>43.430590000000002</v>
+      </c>
+      <c r="C142" s="8">
+        <v>-80.430199999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B143" s="8">
+        <v>43.430999999999997</v>
+      </c>
+      <c r="C143" s="8">
+        <v>-80.4589</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B144" s="8">
+        <v>43.436909999999997</v>
+      </c>
+      <c r="C144" s="8">
+        <v>-80.450800000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B145" s="8">
+        <v>43.439160000000001</v>
+      </c>
+      <c r="C145" s="8">
+        <v>-80.4375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B146" s="8">
+        <v>43.440849999999998</v>
+      </c>
+      <c r="C146" s="8">
+        <v>-80.447599999999994</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B147" s="8">
+        <v>43.443309999999997</v>
+      </c>
+      <c r="C147" s="8">
+        <v>-80.446700000000007</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B148" s="8">
+        <v>43.443779999999997</v>
+      </c>
+      <c r="C148" s="8">
+        <v>-80.446100000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B149" s="8">
+        <v>43.443930000000002</v>
+      </c>
+      <c r="C149" s="8">
+        <v>-80.444900000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B150" s="8">
+        <v>43.444450000000003</v>
+      </c>
+      <c r="C150" s="8">
+        <v>-80.445599999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B151" s="8">
+        <v>43.444830000000003</v>
+      </c>
+      <c r="C151" s="8">
+        <v>-80.445899999999995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B152" s="8">
+        <v>43.444929999999999</v>
+      </c>
+      <c r="C152" s="8">
+        <v>-80.4452</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" s="8">
+        <v>43.446620000000003</v>
+      </c>
+      <c r="C153" s="8">
+        <v>-80.464200000000005</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B154" s="8">
+        <v>43.447119999999998</v>
+      </c>
+      <c r="C154" s="8">
+        <v>-80.470500000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155" s="8">
+        <v>43.447130000000001</v>
+      </c>
+      <c r="C155" s="8">
+        <v>-80.448599999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B156" s="8">
+        <v>43.44735</v>
+      </c>
+      <c r="C156" s="8">
+        <v>-80.471800000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B157" s="8">
+        <v>43.44755</v>
+      </c>
+      <c r="C157" s="8">
+        <v>-80.448400000000007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" s="8">
+        <v>43.451369999999997</v>
+      </c>
+      <c r="C158" s="8">
+        <v>-80.47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B159" s="8">
+        <v>43.452100000000002</v>
+      </c>
+      <c r="C159" s="8">
+        <v>-80.448700000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B160" s="8">
+        <v>43.45288</v>
+      </c>
+      <c r="C160" s="8">
+        <v>-80.449600000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" s="8">
+        <v>43.454529999999998</v>
+      </c>
+      <c r="C161" s="8">
+        <v>-80.461500000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" s="8">
+        <v>43.457059999999998</v>
+      </c>
+      <c r="C162" s="8">
+        <v>-80.433300000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="8">
+        <v>43.457610000000003</v>
+      </c>
+      <c r="C163" s="8">
+        <v>-80.434399999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="8">
+        <v>43.458579999999998</v>
+      </c>
+      <c r="C164" s="8">
+        <v>-80.474199999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" s="8">
+        <v>43.461329999999997</v>
+      </c>
+      <c r="C165" s="8">
+        <v>-80.447199999999995</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" s="8">
+        <v>43.436959999999999</v>
+      </c>
+      <c r="C166" s="8">
+        <v>-80.451499999999996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B167" s="8">
+        <v>43.439889999999998</v>
+      </c>
+      <c r="C167" s="8">
+        <v>-80.456999999999994</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B168" s="8">
+        <v>43.441650000000003</v>
+      </c>
+      <c r="C168" s="8">
+        <v>-80.409800000000004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B169" s="8">
+        <v>43.44426</v>
+      </c>
+      <c r="C169" s="8">
+        <v>-80.446100000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B170" s="8">
+        <v>43.44782</v>
+      </c>
+      <c r="C170" s="8">
+        <v>-80.448899999999995</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B171" s="8">
+        <v>43.452719999999999</v>
+      </c>
+      <c r="C171" s="8">
+        <v>-80.403400000000005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B172" s="8">
+        <v>43.453069999999997</v>
+      </c>
+      <c r="C172" s="8">
+        <v>-80.448800000000006</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B173" s="8">
+        <v>43.454500000000003</v>
+      </c>
+      <c r="C173" s="8">
+        <v>-80.441800000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B174" s="8">
+        <v>43.457790000000003</v>
+      </c>
+      <c r="C174" s="8">
+        <v>-80.474699999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B175" s="8">
+        <v>43.465690000000002</v>
+      </c>
+      <c r="C175" s="8">
+        <v>-80.447100000000006</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B176" s="8">
+        <v>43.432720000000003</v>
+      </c>
+      <c r="C176" s="8">
+        <v>-80.470699999999994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A177" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B177" s="8">
+        <v>43.446800000000003</v>
+      </c>
+      <c r="C177" s="8">
+        <v>-80.464500000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B178" s="8">
+        <v>43.447220000000002</v>
+      </c>
+      <c r="C178" s="8">
+        <v>-80.466999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B179" s="8">
+        <v>43.44791</v>
+      </c>
+      <c r="C179" s="8">
+        <v>-80.465100000000007</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B180" s="8">
+        <v>43.455759999999998</v>
+      </c>
+      <c r="C180" s="8">
+        <v>-80.433000000000007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B181" s="8">
+        <v>43.439230000000002</v>
+      </c>
+      <c r="C181" s="8">
+        <v>-80.459900000000005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A182" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B182" s="8">
+        <v>43.439630000000001</v>
+      </c>
+      <c r="C182" s="8">
+        <v>-80.467200000000005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B183" s="8">
+        <v>43.441519999999997</v>
+      </c>
+      <c r="C183" s="8">
+        <v>-80.456999999999994</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B184" s="8">
+        <v>43.443370000000002</v>
+      </c>
+      <c r="C184" s="8">
+        <v>-80.483500000000006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A185" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B185" s="8">
+        <v>43.444600000000001</v>
+      </c>
+      <c r="C185" s="8">
+        <v>-80.446100000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B186" s="8">
+        <v>43.447940000000003</v>
+      </c>
+      <c r="C186" s="8">
+        <v>-80.440200000000004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B187" s="8">
+        <v>43.449170000000002</v>
+      </c>
+      <c r="C187" s="8">
+        <v>-80.465100000000007</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B188" s="8">
+        <v>43.456569999999999</v>
+      </c>
+      <c r="C188" s="8">
+        <v>-80.432900000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B189" s="8">
+        <v>43.438249999999996</v>
+      </c>
+      <c r="C189" s="8">
+        <v>-80.436599999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B190" s="8">
+        <v>43.444310000000002</v>
+      </c>
+      <c r="C190" s="8">
+        <v>-80.481200000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B191" s="8">
+        <v>43.45581</v>
+      </c>
+      <c r="C191" s="8">
+        <v>-80.433000000000007</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B192" s="8">
+        <v>43.430059999999997</v>
+      </c>
+      <c r="C192" s="8">
+        <v>-80.428899999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B193" s="8">
+        <v>43.430700000000002</v>
+      </c>
+      <c r="C193" s="8">
+        <v>-80.415499999999994</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A194" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B194" s="8">
+        <v>43.430869999999999</v>
+      </c>
+      <c r="C194" s="8">
+        <v>-80.413499999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A195" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B195" s="8">
+        <v>43.43159</v>
+      </c>
+      <c r="C195" s="8">
+        <v>-80.413300000000007</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B196" s="8">
+        <v>43.436050000000002</v>
+      </c>
+      <c r="C196" s="8">
+        <v>-80.450500000000005</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B197" s="8">
+        <v>43.438800000000001</v>
+      </c>
+      <c r="C197" s="8">
+        <v>-80.436899999999994</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B198" s="8">
+        <v>43.438920000000003</v>
+      </c>
+      <c r="C198" s="8">
+        <v>-80.457700000000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B199" s="8">
+        <v>43.439120000000003</v>
+      </c>
+      <c r="C199" s="8">
+        <v>-80.459500000000006</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B200" s="8">
+        <v>43.442830000000001</v>
+      </c>
+      <c r="C200" s="8">
+        <v>-80.482600000000005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A201" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B201" s="8">
+        <v>43.4435</v>
+      </c>
+      <c r="C201" s="8">
+        <v>-80.482900000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A202" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B202" s="8">
+        <v>43.447960000000002</v>
+      </c>
+      <c r="C202" s="8">
+        <v>-80.4709</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A203" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B203" s="8">
+        <v>43.448189999999997</v>
+      </c>
+      <c r="C203" s="8">
+        <v>-80.464299999999994</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A204" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B204" s="8">
+        <v>43.450989999999997</v>
+      </c>
+      <c r="C204" s="8">
+        <v>-80.437899999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A205" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B205" s="8">
+        <v>43.452390000000001</v>
+      </c>
+      <c r="C205" s="8">
+        <v>-80.4178</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A206" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B206" s="8">
+        <v>43.453879999999998</v>
+      </c>
+      <c r="C206" s="8">
+        <v>-80.442999999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B207" s="8">
+        <v>43.454219999999999</v>
+      </c>
+      <c r="C207" s="8">
+        <v>-80.441999999999993</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B208" s="8">
+        <v>43.454839999999997</v>
+      </c>
+      <c r="C208" s="8">
+        <v>-80.462599999999995</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A209" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B209" s="8">
+        <v>43.454929999999997</v>
+      </c>
+      <c r="C209" s="8">
+        <v>-80.460999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B210" s="8">
+        <v>43.455500000000001</v>
+      </c>
+      <c r="C210" s="8">
+        <v>-80.435199999999995</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A211" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B211" s="8">
+        <v>43.45617</v>
+      </c>
+      <c r="C211" s="8">
+        <v>-80.436000000000007</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A212" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B212" s="8">
+        <v>43.462449999999997</v>
+      </c>
+      <c r="C212" s="8">
+        <v>-80.457300000000004</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A213" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B213" s="8">
+        <v>43.465179999999997</v>
+      </c>
+      <c r="C213" s="8">
+        <v>-80.447000000000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A214" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B214" s="8">
+        <v>43.437060000000002</v>
+      </c>
+      <c r="C214" s="8">
+        <v>-80.451400000000007</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A215" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B215" s="8">
+        <v>43.437179999999998</v>
+      </c>
+      <c r="C215" s="8">
+        <v>-80.451300000000003</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A216" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B216" s="8">
+        <v>43.439929999999997</v>
+      </c>
+      <c r="C216" s="8">
+        <v>-80.4572</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A217" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B217" s="8">
+        <v>43.439959999999999</v>
+      </c>
+      <c r="C217" s="8">
+        <v>-80.457400000000007</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A218" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B218" s="8">
+        <v>43.443080000000002</v>
+      </c>
+      <c r="C218" s="8">
+        <v>-80.481200000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A219" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B219" s="8">
+        <v>43.443219999999997</v>
+      </c>
+      <c r="C219" s="8">
+        <v>-80.481300000000005</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A220" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B220" s="8">
+        <v>43.443359999999998</v>
+      </c>
+      <c r="C220" s="8">
+        <v>-80.481399999999994</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A221" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B221" s="8">
+        <v>43.4435</v>
+      </c>
+      <c r="C221" s="8">
+        <v>-80.481499999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A222" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B222" s="8">
+        <v>43.44455</v>
+      </c>
+      <c r="C222" s="8">
+        <v>-80.446200000000005</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A223" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B223" s="8">
+        <v>43.444679999999998</v>
+      </c>
+      <c r="C223" s="8">
+        <v>-80.446100000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A224" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B224" s="8">
+        <v>43.451239999999999</v>
+      </c>
+      <c r="C224" s="8">
+        <v>-80.437200000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A225" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B225" s="8">
+        <v>43.453189999999999</v>
+      </c>
+      <c r="C225" s="8">
+        <v>-80.448899999999995</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A226" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B226" s="8">
+        <v>43.453319999999998</v>
+      </c>
+      <c r="C226" s="8">
+        <v>-80.448899999999995</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A227" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B227" s="8">
+        <v>43.453440000000001</v>
+      </c>
+      <c r="C227" s="8">
+        <v>-80.448999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A228" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B228" s="8">
+        <v>43.457900000000002</v>
+      </c>
+      <c r="C228" s="8">
+        <v>-80.474400000000003</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A229" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B229" s="8">
+        <v>43.462949999999999</v>
+      </c>
+      <c r="C229" s="8">
+        <v>-80.447000000000003</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A230" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B230" s="8">
+        <v>43.463030000000003</v>
+      </c>
+      <c r="C230" s="8">
+        <v>-80.446799999999996</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A231" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B231" s="8">
+        <v>43.437809999999999</v>
+      </c>
+      <c r="C231" s="8">
+        <v>-80.459400000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A232" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B232" s="8">
+        <v>43.440519999999999</v>
+      </c>
+      <c r="C232" s="8">
+        <v>-80.468999999999994</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A233" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B233" s="8">
+        <v>43.441200000000002</v>
+      </c>
+      <c r="C233" s="8">
+        <v>-80.470799999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A234" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B234" s="8">
+        <v>43.442979999999999</v>
+      </c>
+      <c r="C234" s="8">
+        <v>-80.475300000000004</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A235" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B235" s="8">
+        <v>43.444540000000003</v>
+      </c>
+      <c r="C235" s="8">
+        <v>-80.4786</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A236" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B236" s="8">
+        <v>43.454859999999996</v>
+      </c>
+      <c r="C236" s="8">
+        <v>-80.432000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A237" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B237" s="8">
+        <v>43.459960000000002</v>
+      </c>
+      <c r="C237" s="8">
+        <v>-80.470399999999998</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>